--- a/Statystyki_2018/Template/otrg.xlsx
+++ b/Statystyki_2018/Template/otrg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch spraw" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t xml:space="preserve">Opis</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">GCps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gz</t>
   </si>
   <si>
     <t xml:space="preserve">WSC</t>
@@ -245,15 +248,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -277,6 +283,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
@@ -325,11 +332,14 @@
       <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B1:Q1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -346,44 +356,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -399,13 +409,14 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="W1" s="1"/>
+      <c r="X1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
@@ -414,10 +425,10 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
@@ -453,23 +464,26 @@
         <v>12</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="X2" s="2"/>
       <c r="Y2" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -480,9 +494,9 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="H1:W1"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -499,38 +513,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:U1048576"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.28"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -546,11 +561,12 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
-        <v>34</v>
+      <c r="U1" s="1"/>
+      <c r="V1" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -590,32 +606,22 @@
         <v>12</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="2"/>
     </row>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:A2"/>
@@ -623,8 +629,8 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:T1"/>
-    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -641,13 +647,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:T1048576"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.11"/>
@@ -657,22 +663,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -688,6 +694,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
@@ -729,26 +736,21 @@
         <v>12</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
@@ -756,7 +758,7 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:T1"/>
+    <mergeCell ref="F1:U1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
